--- a/EXCEL/test.xlsx
+++ b/EXCEL/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Terry\Web\TMS\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA51C600-2669-43A6-90BE-0A198AF2C928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A95E3D-F701-4C28-AD3C-3A1665ECED5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16188" yWindow="1644" windowWidth="13656" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9384" yWindow="1644" windowWidth="13656" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="3">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,92 +361,818 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
